--- a/ServerApp/TheaAdmin/ExcelTemplates/MemberImportTemplate.xlsx
+++ b/ServerApp/TheaAdmin/ExcelTemplates/MemberImportTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafkevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkFolder\Projs\Home\TheaAdmin\ServerApp\TheaAdmin\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D513AA6B-CB95-4605-BAD6-B58CC9397B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BCE7EB-F63B-4A64-B024-A3EC18582804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>余额</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
   <si>
     <r>
       <rPr>
@@ -85,13 +76,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>朋友亲戚需特殊照顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>男性</t>
-  </si>
-  <si>
-    <t>女性</t>
-  </si>
-  <si>
-    <t>朋友亲戚需特殊照顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,47 +492,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>18088008800</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>200</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>18088008811</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
@@ -538,7 +542,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{585A0595-34F7-4CAA-941B-13E99FDBCE6E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{585A0595-34F7-4CAA-941B-13E99FDBCE6E}">
       <formula1>"未知,男性,女性"</formula1>
     </dataValidation>
   </dataValidations>
